--- a/biology/Médecine/Prix_Rosenstiel/Prix_Rosenstiel.xlsx
+++ b/biology/Médecine/Prix_Rosenstiel/Prix_Rosenstiel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le prix Lewis S. Rosenstiel est un prix de médecine qui récompense une œuvre remarquable dans la recherche médicale fondamentale. Le prix est décerné par l'université Brandeis. Il est doté de 30 000 $ et accompagné d'une médaille.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix a été créé en 1971 « comme expression de la conviction que les établissements d'enseignement ont un rôle important à jouer dans l'encouragement et le développement de la science fondamentale appliquée à la médecine »[1].
-Les médailles sont décernées chaque année à l'Université Brandeis sur la base des recommandations d'un panel de scientifiques sélectionnés par le Rosenstiel Basic Medical Sciences Research Center. Les prix sont décernés à des scientifiques pour des découvertes récentes « d'originalité particulière et importants pour la recherche médicale fondamentale »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix a été créé en 1971 « comme expression de la conviction que les établissements d'enseignement ont un rôle important à jouer dans l'encouragement et le développement de la science fondamentale appliquée à la médecine ».
+Les médailles sont décernées chaque année à l'Université Brandeis sur la base des recommandations d'un panel de scientifiques sélectionnés par le Rosenstiel Basic Medical Sciences Research Center. Les prix sont décernés à des scientifiques pour des découvertes récentes « d'originalité particulière et importants pour la recherche médicale fondamentale ».
 Le Rosenstiel Basic Medical Sciences Research Center (Centre de recherche en sciences médicales fondamentales Rosenstiel), du nom de Lewis Solon Rosenstiel, a été créé en 1968 et mène des recherches en sciences médicales fondamentales.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Récipiendaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Source : Université Brandeis
 2022 Christine Holt et Erin Schuman
